--- a/Gravity/data/2022_Gravity.xlsx
+++ b/Gravity/data/2022_Gravity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kam98\Documents\Field Session\GitHub\fieldcamp_flinstones\Gravity\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kam98\Documents\Field Session\GitHub\fieldcamp_flinstones\Gravity\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80ADF625-8A8B-4E10-BAD1-FC6F10429106}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AA09799-B9A8-444A-A123-1161B2C806DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12578" yWindow="0" windowWidth="13424" windowHeight="15563" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="855" yWindow="2573" windowWidth="25065" windowHeight="13432" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GROUP5 CG5-1" sheetId="1" r:id="rId1"/>
@@ -1055,10 +1055,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344A14EA-C41C-4404-AD8E-7B505BE2F5A7}">
-  <dimension ref="A1:G25"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="113" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="113" workbookViewId="0">
+      <selection activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -1527,42 +1527,22 @@
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>5</v>
+      </c>
       <c r="B24">
-        <v>3.9000000000000012</v>
+        <v>4.2000000000000011</v>
       </c>
       <c r="C24">
-        <v>3434.0309999999999</v>
+        <v>3439.0569999999998</v>
       </c>
       <c r="D24">
-        <v>4483188.4950000001</v>
+        <v>4483141.352</v>
       </c>
       <c r="E24">
-        <v>343980.16800000001</v>
+        <v>344090.46</v>
       </c>
       <c r="F24">
-        <v>2055.2820000000002</v>
-      </c>
-      <c r="G24">
-        <v>439.74223101242802</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A25" t="s">
-        <v>5</v>
-      </c>
-      <c r="B25">
-        <v>4.2000000000000011</v>
-      </c>
-      <c r="C25">
-        <v>3439.0569999999998</v>
-      </c>
-      <c r="D25">
-        <v>4483141.352</v>
-      </c>
-      <c r="E25">
-        <v>344090.46</v>
-      </c>
-      <c r="F25">
         <v>2032.5630000000001</v>
       </c>
     </row>
